--- a/src/excel/AntigenSupportingData- Rubella-508.xlsx
+++ b/src/excel/AntigenSupportingData- Rubella-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508 - DRAFT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA9FD27-A478-4F39-812A-88CCE7D2BA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9071F877-7BA2-4341-AD1A-326A822D9B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="394">
   <si>
     <t>Resources</t>
   </si>
@@ -256,19 +256,10 @@
     <t>Overview</t>
   </si>
   <si>
-    <t>≥12 mo</t>
-  </si>
-  <si>
-    <t>≥12 mo-4 d</t>
-  </si>
-  <si>
     <t>MERUVAX (MSD)</t>
   </si>
   <si>
     <t>BIAVAX II (MSD)</t>
-  </si>
-  <si>
-    <t>≥12 mo to &lt;13 yrs</t>
   </si>
   <si>
     <t>PROQUAD (MSD)</t>
@@ -1198,6 +1189,84 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>Solid organ transplantation (157)</t>
+  </si>
+  <si>
+    <t>Publication Date: 12/13/2024</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; Antigen Contraindication -&gt; Contraindication (Code)</t>
+  </si>
+  <si>
+    <t>Typo correction</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; New Vaccine Contraindication</t>
+  </si>
+  <si>
+    <t>MMRV (CVX 94) contraindication for persons with an HIV infection (coded observation 186)</t>
+  </si>
+  <si>
+    <t>HIV infection of any severity is listed as a contraindication for MMRV in the 2025 yearly schedule.</t>
+  </si>
+  <si>
+    <t>HIV Infection (186)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate with MMRV if the patient has an HIV infection of any severity.</t>
+  </si>
+  <si>
+    <t>Publication Date: 02/06/2025</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Measles (091)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Measles vaccine.</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Mumps (092)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Mumps vaccine.</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Varicella (089)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Varicella vaccine.</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; New Antigen Contraindications</t>
+  </si>
+  <si>
+    <t>Added code 91 and 92</t>
+  </si>
+  <si>
+    <t>Added new antigen contraindication for severe allergic reaction after previous dose of measles (091) and mumps (092). This existing codes are used in measles and mumps, but apply here too as all rubella-containing vaccines also contain measles and mumps.</t>
+  </si>
+  <si>
+    <t>Added new vaccine contraindications to support combination vaccines which have cross antigen contraindications impacting the combination vaccine. For example, a Varicella-specific contraindication also contraindicates the use of MMRV across all antigens, not just Varicella. Previously, the Varicella-specific contraindications was only present in Varicella supporting data.</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has HIV/AIDS but are not severely immunocompromised (See the CDC general recommendations for a definition of "severely immunocompromised").</t>
+  </si>
+  <si>
+    <t>Added code 089, 155</t>
+  </si>
+  <si>
+    <t>Publication Date: 05/23/2025</t>
+  </si>
+  <si>
+    <t>≥12 mos</t>
+  </si>
+  <si>
+    <t>≥12 mos to &lt;13 yrs</t>
+  </si>
+  <si>
+    <t>≥12 mos - 4 days</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2258,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2782,6 +2851,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="13" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -3136,7 +3211,7 @@
         <v>70</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" s="96"/>
       <c r="D1" s="96"/>
@@ -3162,7 +3237,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
@@ -3188,7 +3263,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="100" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C5" s="100"/>
       <c r="D5" s="100"/>
@@ -3212,7 +3287,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="100" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C7" s="100"/>
       <c r="D7" s="100"/>
@@ -3238,7 +3313,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C9" s="100"/>
       <c r="D9" s="100"/>
@@ -3264,7 +3339,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C11" s="100"/>
       <c r="D11" s="100"/>
@@ -3290,7 +3365,7 @@
         <v>70</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="100"/>
       <c r="D13" s="100"/>
@@ -3304,7 +3379,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C14" s="100"/>
       <c r="D14" s="100"/>
@@ -3318,7 +3393,7 @@
         <v>70</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" s="102"/>
       <c r="D15" s="102"/>
@@ -3342,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C18" s="170"/>
       <c r="D18" s="170"/>
@@ -3357,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C19" s="170"/>
       <c r="D19" s="170"/>
@@ -3372,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C20" s="170"/>
       <c r="D20" s="170"/>
@@ -3387,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C21" s="170"/>
       <c r="D21" s="170"/>
@@ -3402,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C22" s="170"/>
       <c r="D22" s="170"/>
@@ -3467,10 +3542,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>71</v>
+        <v>391</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>10</v>
@@ -3492,13 +3567,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>71</v>
+        <v>391</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F27" s="24">
         <v>0.5</v>
@@ -3517,10 +3592,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11">
@@ -3540,13 +3615,13 @@
         <v>15</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F29" s="11">
         <v>0.5</v>
@@ -3565,13 +3640,13 @@
         <v>16</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D30" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="F30" s="11">
         <v>0.5</v>
@@ -3590,13 +3665,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F31" s="11">
         <v>0.5</v>
@@ -3629,7 +3704,7 @@
     </row>
     <row r="34" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>18</v>
@@ -3654,10 +3729,10 @@
     </row>
     <row r="36" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C36" s="94"/>
       <c r="D36" s="94"/>
@@ -3669,10 +3744,10 @@
     </row>
     <row r="38" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C38" s="194"/>
       <c r="D38" s="194"/>
@@ -3683,10 +3758,10 @@
     </row>
     <row r="40" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B40" s="93" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C40" s="194"/>
       <c r="D40" s="194"/>
@@ -3703,7 +3778,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3711,1041 +3786,1217 @@
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
     <col min="5" max="6" width="52.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B1" s="197">
-        <v>4.59</v>
-      </c>
-      <c r="C1" s="199" t="s">
-        <v>370</v>
+        <v>4.62</v>
+      </c>
+      <c r="C1" s="203" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="E2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="198" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="59">
         <v>1</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>13</v>
+        <v>385</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
-        <v>78</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="161" t="s">
+        <v>75</v>
       </c>
       <c r="B4" s="59">
         <v>2</v>
       </c>
       <c r="C4" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="197">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C6" s="203" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="197">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C10" s="199" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="59">
+        <v>1</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="197">
+        <v>4.59</v>
+      </c>
+      <c r="C14" s="199" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="59">
+        <v>1</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="59">
+        <v>2</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="164" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" s="164" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="164" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="59">
+        <v>3</v>
+      </c>
+      <c r="C18" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="D18" s="164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="164" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="F4" s="65" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="161" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="197">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C20" s="199" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="59">
+      <c r="E21" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="59">
+        <v>1</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="197">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C24" s="199" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="198" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="59">
+        <v>1</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="59">
+        <v>2</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="59">
         <v>3</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="164" t="s">
-        <v>354</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="C28" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="197">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C30" s="199" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="197">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C7" s="199" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="D31" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="E31" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="198" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="31" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="59">
+        <v>1</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="69">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="59">
+        <v>1</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E36" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="69">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="161" t="s">
+      <c r="E39" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="59">
+        <v>1</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="F40" s="65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="59">
+      <c r="E43" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="59">
         <v>1</v>
       </c>
-      <c r="C9" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="C44" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="59">
+        <v>2</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="F45" s="65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="172"/>
+      <c r="B46" s="59">
+        <v>3</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="172"/>
+      <c r="B47" s="59">
+        <v>4</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="F47" s="65" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="59">
+        <v>5</v>
+      </c>
+      <c r="C48" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="F48" s="65" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="69">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="197">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="C11" s="199" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="D51" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="E51" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="198" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="31" t="s">
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="59">
+        <v>1</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E52" s="159" t="s">
+        <v>272</v>
+      </c>
+      <c r="F52" s="65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="69">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="172" t="s">
+      <c r="E55" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="59">
+        <v>1</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D56" s="159" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="159" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56" s="65" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="59">
+        <v>2</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="69">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="59">
+      <c r="E60" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="59">
         <v>1</v>
       </c>
-      <c r="C13" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="172" t="s">
+      <c r="C61" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="159" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="159" t="s">
+        <v>246</v>
+      </c>
+      <c r="F61" s="65" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="59">
-        <v>2</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="59">
-        <v>3</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="197">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="C17" s="199" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="30" t="s">
+      <c r="E64" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="198" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="59">
-        <v>1</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="69">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="59">
-        <v>1</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="69">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="59">
-        <v>1</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>323</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>325</v>
-      </c>
-      <c r="F27" s="65" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="172" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="59">
-        <v>1</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="F31" s="65" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="172" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="59">
-        <v>2</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="172"/>
-      <c r="B33" s="59">
-        <v>3</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="172"/>
-      <c r="B34" s="59">
-        <v>4</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="F34" s="65" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="59">
-        <v>5</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>310</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="F35" s="65" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="69">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="59">
-        <v>1</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="D39" s="159" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="159" t="s">
-        <v>275</v>
-      </c>
-      <c r="F39" s="65" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="69">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="172" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="59">
-        <v>1</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="D43" s="159" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="159" t="s">
-        <v>265</v>
-      </c>
-      <c r="F43" s="65" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="59">
-        <v>2</v>
-      </c>
-      <c r="C44" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="D44" s="159" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="159" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="69">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="59">
-        <v>1</v>
-      </c>
-      <c r="C48" s="63" t="s">
-        <v>248</v>
-      </c>
-      <c r="D48" s="159" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="159" t="s">
-        <v>249</v>
-      </c>
-      <c r="F48" s="65" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="60">
-        <v>1</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" s="62" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
-      <c r="B53" s="59">
-        <v>2</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="F53" s="65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="59">
-        <v>3</v>
-      </c>
-      <c r="C54" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E54" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="F54" s="65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.3">
-      <c r="A55" s="160" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="146">
-        <v>4</v>
-      </c>
-      <c r="C55" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="F55" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="G55" s="148"/>
-      <c r="H55" s="148"/>
-      <c r="I55" s="148"/>
-      <c r="J55" s="148"/>
-      <c r="K55" s="148"/>
-      <c r="L55" s="148"/>
-      <c r="M55" s="148"/>
-      <c r="N55" s="148"/>
-      <c r="O55" s="148"/>
-      <c r="P55" s="148"/>
-      <c r="Q55" s="148"/>
-      <c r="R55" s="148"/>
-    </row>
-    <row r="56" spans="1:18" ht="45" x14ac:dyDescent="0.3">
-      <c r="A56" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="158">
-        <v>5</v>
-      </c>
-      <c r="C56" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="159" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="159" t="s">
-        <v>234</v>
-      </c>
-      <c r="F56" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="G56" s="148"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="148"/>
-      <c r="J56" s="148"/>
-      <c r="K56" s="148"/>
-      <c r="L56" s="148"/>
-      <c r="M56" s="148"/>
-      <c r="N56" s="148"/>
-      <c r="O56" s="148"/>
-      <c r="P56" s="148"/>
-      <c r="Q56" s="148"/>
-      <c r="R56" s="148"/>
-    </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="145" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="144">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="141" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="142" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="141" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="141" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="139">
-        <v>1</v>
-      </c>
-      <c r="C60" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="D60" s="139" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="F60" s="65" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="65">
-        <v>2</v>
-      </c>
-      <c r="C61" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="139" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="F61" s="65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="138"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-    </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B65" s="60">
         <v>1</v>
       </c>
       <c r="C65" s="62" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E65" s="62" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="F65" s="62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
       <c r="B66" s="59">
         <v>2</v>
       </c>
       <c r="C66" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="59">
+        <v>3</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" s="65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.3">
+      <c r="A68" s="160" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="146">
+        <v>4</v>
+      </c>
+      <c r="C68" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="147" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="F68" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="148"/>
+      <c r="L68" s="148"/>
+      <c r="M68" s="148"/>
+      <c r="N68" s="148"/>
+      <c r="O68" s="148"/>
+      <c r="P68" s="148"/>
+      <c r="Q68" s="148"/>
+      <c r="R68" s="148"/>
+    </row>
+    <row r="69" spans="1:18" ht="45" x14ac:dyDescent="0.3">
+      <c r="A69" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="158">
+        <v>5</v>
+      </c>
+      <c r="C69" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="159" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="159" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="G69" s="148"/>
+      <c r="H69" s="148"/>
+      <c r="I69" s="148"/>
+      <c r="J69" s="148"/>
+      <c r="K69" s="148"/>
+      <c r="L69" s="148"/>
+      <c r="M69" s="148"/>
+      <c r="N69" s="148"/>
+      <c r="O69" s="148"/>
+      <c r="P69" s="148"/>
+      <c r="Q69" s="148"/>
+      <c r="R69" s="148"/>
+    </row>
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="145" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="144">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="78"/>
+      <c r="F71" s="78"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="141" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="139">
+        <v>1</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" s="65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="65">
+        <v>2</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="139" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="138"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="137"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="137"/>
+    </row>
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="60">
+        <v>1</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="64"/>
+      <c r="B79" s="59">
+        <v>2</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="61" t="s">
+      <c r="F79" s="65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="32">
+        <v>1</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="32">
+        <v>2</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="F66" s="65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="29">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="31" t="s">
+      <c r="D84" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E69" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="32">
-        <v>1</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="26" t="s">
+      <c r="E84" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="F84" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="32">
-        <v>2</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4767,33 +5018,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="162" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="163" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="E1" s="163" t="s">
         <v>241</v>
-      </c>
-      <c r="C1" s="163" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1" s="163" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="163" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="160" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="164" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C2" s="165" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D2" s="166" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E2" s="167" t="s">
         <v>13</v>
@@ -4801,16 +5052,16 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="160" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B3" s="158" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D3" s="159" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E3" s="167" t="s">
         <v>13</v>
@@ -4818,70 +5069,70 @@
     </row>
     <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="160" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B4" s="158" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D4" s="159" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="160" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B5" s="158" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D5" s="159" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="160" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B6" s="158" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="168" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B7" s="158" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4900,46 +5151,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="72" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="104" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +5201,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -4965,33 +5216,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C1" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E1" s="80" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D2" s="104" t="s">
         <v>13</v>
@@ -5005,13 +5256,13 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B3" s="157" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" s="157" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D3" s="104" t="s">
         <v>13</v>
@@ -5025,13 +5276,13 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B4" s="157" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C4" s="157" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D4" s="104" t="s">
         <v>13</v>
@@ -5045,13 +5296,13 @@
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>13</v>
@@ -5063,15 +5314,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>171</v>
+    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="204" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="157" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" s="157" t="s">
+        <v>379</v>
       </c>
       <c r="D6" s="104" t="s">
         <v>13</v>
@@ -5083,15 +5334,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="157" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="157" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>381</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>13</v>
@@ -5103,15 +5354,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D8" s="104" t="s">
         <v>13</v>
@@ -5125,13 +5376,13 @@
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>123</v>
+        <v>229</v>
+      </c>
+      <c r="B9" s="157" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="157" t="s">
+        <v>228</v>
       </c>
       <c r="D9" s="104" t="s">
         <v>13</v>
@@ -5145,13 +5396,13 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D10" s="104" t="s">
         <v>13</v>
@@ -5165,13 +5416,13 @@
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="104" t="s">
         <v>13</v>
@@ -5185,13 +5436,13 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D12" s="104" t="s">
         <v>13</v>
@@ -5205,13 +5456,13 @@
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="104" t="s">
         <v>13</v>
@@ -5223,15 +5474,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>13</v>
@@ -5243,15 +5494,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D15" s="104" t="s">
         <v>13</v>
@@ -5265,73 +5516,73 @@
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B16" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>136</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="D19" s="104" t="s">
         <v>13</v>
@@ -5345,13 +5596,13 @@
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D20" s="104" t="s">
         <v>13</v>
@@ -5365,13 +5616,13 @@
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D21" s="104" t="s">
         <v>13</v>
@@ -5383,15 +5634,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D22" s="104" t="s">
         <v>13</v>
@@ -5405,13 +5656,13 @@
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D23" s="104" t="s">
         <v>13</v>
@@ -5425,314 +5676,400 @@
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D27" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B25" s="32" t="s">
+      <c r="C28" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="D28" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B26" s="32" t="s">
+      <c r="C29" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="D29" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" s="32" t="s">
+      <c r="C30" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C31" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="32" t="s">
+      <c r="D31" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B29" s="32" t="s">
+      <c r="C32" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C33" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B30" s="32" t="s">
+      <c r="D33" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="200" t="s">
+        <v>368</v>
+      </c>
+      <c r="C34" s="201" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" s="202" t="s">
+        <v>351</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B31" s="32" t="s">
+      <c r="C35" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="D35" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B32" s="200" t="s">
-        <v>352</v>
-      </c>
-      <c r="C32" s="201" t="s">
-        <v>353</v>
-      </c>
-      <c r="D32" s="202" t="s">
-        <v>354</v>
-      </c>
-      <c r="E32" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B33" s="32" t="s">
+      <c r="C36" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="D36" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D38" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="76"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="78"/>
+    </row>
+    <row r="40" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D35" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="D36" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78"/>
-    </row>
-    <row r="38" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
+      <c r="B40" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="80" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="104" t="s">
+      <c r="G40" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D41" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="204" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" s="157" t="s">
+        <v>388</v>
+      </c>
+      <c r="D42" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D43" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5758,7 +6095,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C1" s="94"/>
       <c r="D1" s="95"/>
@@ -5785,52 +6122,52 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="135" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C5" s="87"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B6" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="136" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B8" s="135" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C8" s="87"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B9" s="72" t="s">
         <v>13</v>
@@ -5860,7 +6197,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B12" s="115" t="s">
         <v>24</v>
@@ -5869,27 +6206,27 @@
         <v>25</v>
       </c>
       <c r="D12" s="118" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="118" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G12" s="117" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="119" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" s="116" t="s">
         <v>27</v>
@@ -5898,13 +6235,13 @@
         <v>28</v>
       </c>
       <c r="D13" s="121" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E13" s="72">
         <v>1</v>
       </c>
       <c r="F13" s="121" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G13" s="120">
         <v>1</v>
@@ -5918,27 +6255,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B15" s="72" t="s">
         <v>13</v>
@@ -5994,10 +6331,10 @@
         <v>36</v>
       </c>
       <c r="G18" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H18" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6028,7 +6365,7 @@
     </row>
     <row r="20" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B20" s="115" t="s">
         <v>41</v>
@@ -6037,10 +6374,10 @@
         <v>42</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E20" s="118" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F20" s="117" t="s">
         <v>43</v>
@@ -6055,18 +6392,18 @@
         <v>46</v>
       </c>
       <c r="J20" s="106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K20" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L20" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="109" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B21" s="125" t="s">
         <v>13</v>
@@ -6104,7 +6441,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>41</v>
@@ -6116,17 +6453,17 @@
         <v>43</v>
       </c>
       <c r="E22" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F22" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" s="104" t="s">
         <v>13</v>
@@ -6166,7 +6503,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="127" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -6189,7 +6526,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -6212,7 +6549,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -6309,7 +6646,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="131" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B33" s="150" t="s">
         <v>2</v>
@@ -6333,7 +6670,7 @@
     </row>
     <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="154" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B34" s="155" t="s">
         <v>13</v>
@@ -6357,34 +6694,34 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="173" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="173" t="s">
-        <v>283</v>
-      </c>
-      <c r="C35" s="110" t="s">
+      <c r="F35" s="173" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" s="173" t="s">
+        <v>279</v>
+      </c>
+      <c r="H35" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="110" t="s">
+      <c r="I35" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="E35" s="110" t="s">
+      <c r="J35" s="110" t="s">
         <v>190</v>
-      </c>
-      <c r="F35" s="173" t="s">
-        <v>281</v>
-      </c>
-      <c r="G35" s="173" t="s">
-        <v>282</v>
-      </c>
-      <c r="H35" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="I35" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35" s="110" t="s">
-        <v>193</v>
       </c>
       <c r="K35" s="110" t="s">
         <v>55</v>
@@ -6393,33 +6730,33 @@
         <v>56</v>
       </c>
       <c r="M35" s="110" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N35" s="110" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O35" s="110" t="s">
         <v>40</v>
       </c>
       <c r="P35" s="110" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="110" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R35" s="110" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S35" s="110" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T35" s="111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B36" s="174" t="s">
         <v>13</v>
@@ -6564,10 +6901,10 @@
         <v>36</v>
       </c>
       <c r="G43" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H43" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -6598,7 +6935,7 @@
     </row>
     <row r="45" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>41</v>
@@ -6607,10 +6944,10 @@
         <v>42</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E45" s="118" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>43</v>
@@ -6625,18 +6962,18 @@
         <v>46</v>
       </c>
       <c r="J45" s="106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K45" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L45" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="109" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>65</v>
@@ -6674,7 +7011,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>41</v>
@@ -6686,17 +7023,17 @@
         <v>43</v>
       </c>
       <c r="E47" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F47" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" s="104" t="s">
         <v>13</v>
@@ -6736,7 +7073,7 @@
         <v>50</v>
       </c>
       <c r="G49" s="127" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -6759,7 +7096,7 @@
         <v>0.5</v>
       </c>
       <c r="G50" s="72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -6782,7 +7119,7 @@
         <v>0.5</v>
       </c>
       <c r="G51" s="72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -6879,7 +7216,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="131" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B58" s="150" t="s">
         <v>2</v>
@@ -6903,7 +7240,7 @@
     </row>
     <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="154" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B59" s="155" t="s">
         <v>13</v>
@@ -6927,34 +7264,34 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="173" t="s">
+        <v>280</v>
+      </c>
+      <c r="C60" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="B60" s="173" t="s">
-        <v>283</v>
-      </c>
-      <c r="C60" s="110" t="s">
+      <c r="F60" s="173" t="s">
+        <v>278</v>
+      </c>
+      <c r="G60" s="173" t="s">
+        <v>279</v>
+      </c>
+      <c r="H60" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="110" t="s">
+      <c r="I60" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="E60" s="110" t="s">
+      <c r="J60" s="110" t="s">
         <v>190</v>
-      </c>
-      <c r="F60" s="173" t="s">
-        <v>281</v>
-      </c>
-      <c r="G60" s="173" t="s">
-        <v>282</v>
-      </c>
-      <c r="H60" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="I60" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="J60" s="110" t="s">
-        <v>193</v>
       </c>
       <c r="K60" s="110" t="s">
         <v>55</v>
@@ -6963,36 +7300,36 @@
         <v>56</v>
       </c>
       <c r="M60" s="110" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N60" s="110" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O60" s="110" t="s">
         <v>40</v>
       </c>
       <c r="P60" s="110" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q60" s="110" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R60" s="110" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S60" s="110" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T60" s="111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B61" s="174" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C61" s="113" t="s">
         <v>13</v>
@@ -7001,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="113" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F61" s="72" t="s">
         <v>13</v>
@@ -7025,7 +7362,7 @@
         <v>13</v>
       </c>
       <c r="M61" s="113" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N61" s="113" t="s">
         <v>13</v>
@@ -7120,7 +7457,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C1" s="85"/>
       <c r="D1" s="86"/>
@@ -7147,52 +7484,52 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="135" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" s="87"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B6" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="136" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B8" s="135" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C8" s="87"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B9" s="72" t="s">
         <v>13</v>
@@ -7222,7 +7559,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B12" s="115" t="s">
         <v>24</v>
@@ -7231,27 +7568,27 @@
         <v>25</v>
       </c>
       <c r="D12" s="133" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="118" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G12" s="117" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="119" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" s="120" t="s">
         <v>28</v>
@@ -7260,19 +7597,19 @@
         <v>28</v>
       </c>
       <c r="D13" s="149" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E13" s="72">
         <v>2</v>
       </c>
       <c r="F13" s="121" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G13" s="120">
         <v>1</v>
       </c>
       <c r="H13" s="120" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I13" s="72" t="s">
         <v>38</v>
@@ -7280,36 +7617,36 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E15" s="72" t="s">
         <v>38</v>
@@ -7355,10 +7692,10 @@
         <v>36</v>
       </c>
       <c r="G18" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H18" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -7366,13 +7703,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E19" s="72" t="s">
         <v>38</v>
@@ -7389,7 +7726,7 @@
     </row>
     <row r="20" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="131" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>41</v>
@@ -7398,10 +7735,10 @@
         <v>42</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E20" s="133" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>43</v>
@@ -7416,18 +7753,18 @@
         <v>46</v>
       </c>
       <c r="J20" s="106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K20" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L20" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="132" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B21" s="104" t="s">
         <v>13</v>
@@ -7465,7 +7802,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>41</v>
@@ -7477,17 +7814,17 @@
         <v>43</v>
       </c>
       <c r="E22" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F22" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" s="104" t="s">
         <v>13</v>
@@ -7527,7 +7864,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="127" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -7538,7 +7875,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D25" s="72" t="s">
         <v>13</v>
@@ -7550,7 +7887,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -7577,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D27" s="72" t="s">
         <v>13</v>
@@ -7623,7 +7960,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D30" s="72" t="s">
         <v>13</v>
@@ -7638,7 +7975,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D31" s="72" t="s">
         <v>13</v>
@@ -7647,7 +7984,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="131" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B32" s="150" t="s">
         <v>2</v>
@@ -7671,7 +8008,7 @@
     </row>
     <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="154" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B33" s="155" t="s">
         <v>13</v>
@@ -7695,34 +8032,34 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="173" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="173" t="s">
-        <v>283</v>
-      </c>
-      <c r="C34" s="110" t="s">
+      <c r="F34" s="173" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" s="173" t="s">
+        <v>279</v>
+      </c>
+      <c r="H34" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="I34" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="110" t="s">
+      <c r="J34" s="110" t="s">
         <v>190</v>
-      </c>
-      <c r="F34" s="173" t="s">
-        <v>281</v>
-      </c>
-      <c r="G34" s="173" t="s">
-        <v>282</v>
-      </c>
-      <c r="H34" s="110" t="s">
-        <v>191</v>
-      </c>
-      <c r="I34" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="J34" s="110" t="s">
-        <v>193</v>
       </c>
       <c r="K34" s="110" t="s">
         <v>55</v>
@@ -7731,33 +8068,33 @@
         <v>56</v>
       </c>
       <c r="M34" s="110" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N34" s="110" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O34" s="110" t="s">
         <v>40</v>
       </c>
       <c r="P34" s="110" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="110" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R34" s="110" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S34" s="110" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T34" s="111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B35" s="174" t="s">
         <v>13</v>
@@ -7887,7 +8224,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C1" s="85"/>
       <c r="D1" s="86"/>
@@ -7914,52 +8251,52 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="135" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C5" s="87"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B6" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="136" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B8" s="135" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C8" s="87"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B9" s="104" t="s">
         <v>13</v>
@@ -7988,7 +8325,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>24</v>
@@ -7997,27 +8334,27 @@
         <v>25</v>
       </c>
       <c r="D12" s="175" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E12" s="176" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="176" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" s="72" t="s">
         <v>28</v>
@@ -8026,19 +8363,19 @@
         <v>28</v>
       </c>
       <c r="D13" s="177" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E13" s="178">
         <v>3</v>
       </c>
       <c r="F13" s="178" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G13" s="72">
         <v>1</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I13" s="72" t="s">
         <v>13</v>
@@ -8046,36 +8383,36 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="179" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E15" s="72" t="s">
         <v>13</v>
@@ -8086,36 +8423,36 @@
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="179" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E16" s="72" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="179" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E17" s="72" t="s">
         <v>13</v>
@@ -8126,16 +8463,16 @@
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E18" s="72" t="s">
         <v>13</v>
@@ -8146,16 +8483,16 @@
     </row>
     <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="179" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E19" s="72" t="s">
         <v>13</v>
@@ -8166,16 +8503,16 @@
     </row>
     <row r="20" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E20" s="72" t="s">
         <v>13</v>
@@ -8221,10 +8558,10 @@
         <v>36</v>
       </c>
       <c r="G23" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H23" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -8235,10 +8572,10 @@
         <v>37</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E24" s="72" t="s">
         <v>13</v>
@@ -8255,7 +8592,7 @@
     </row>
     <row r="25" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="180" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B25" s="52" t="s">
         <v>41</v>
@@ -8264,10 +8601,10 @@
         <v>42</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E25" s="175" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>43</v>
@@ -8282,18 +8619,18 @@
         <v>46</v>
       </c>
       <c r="J25" s="106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K25" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L25" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="181" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B26" s="104" t="s">
         <v>13</v>
@@ -8331,7 +8668,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>41</v>
@@ -8343,17 +8680,17 @@
         <v>43</v>
       </c>
       <c r="E27" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F27" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B28" s="104" t="s">
         <v>13</v>
@@ -8393,7 +8730,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="127" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -8416,7 +8753,7 @@
         <v>0.5</v>
       </c>
       <c r="G30" s="72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -8513,7 +8850,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="180" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B37" s="182" t="s">
         <v>2</v>
@@ -8537,7 +8874,7 @@
     </row>
     <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="187" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B38" s="155" t="s">
         <v>13</v>
@@ -8561,34 +8898,34 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="173" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="189" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="189" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="189" t="s">
         <v>187</v>
       </c>
-      <c r="B39" s="173" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="189" t="s">
+      <c r="F39" s="173" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" s="173" t="s">
+        <v>279</v>
+      </c>
+      <c r="H39" s="189" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="189" t="s">
+      <c r="I39" s="189" t="s">
         <v>189</v>
       </c>
-      <c r="E39" s="189" t="s">
+      <c r="J39" s="189" t="s">
         <v>190</v>
-      </c>
-      <c r="F39" s="173" t="s">
-        <v>281</v>
-      </c>
-      <c r="G39" s="173" t="s">
-        <v>282</v>
-      </c>
-      <c r="H39" s="189" t="s">
-        <v>191</v>
-      </c>
-      <c r="I39" s="189" t="s">
-        <v>192</v>
-      </c>
-      <c r="J39" s="189" t="s">
-        <v>193</v>
       </c>
       <c r="K39" s="189" t="s">
         <v>55</v>
@@ -8597,33 +8934,33 @@
         <v>56</v>
       </c>
       <c r="M39" s="189" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N39" s="189" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O39" s="189" t="s">
         <v>40</v>
       </c>
       <c r="P39" s="189" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q39" s="189" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R39" s="189" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S39" s="189" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T39" s="111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B40" s="174" t="s">
         <v>13</v>
@@ -8767,10 +9104,10 @@
         <v>36</v>
       </c>
       <c r="G47" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H47" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -8801,7 +9138,7 @@
     </row>
     <row r="49" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="180" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B49" s="52" t="s">
         <v>41</v>
@@ -8810,10 +9147,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E49" s="175" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F49" s="35" t="s">
         <v>43</v>
@@ -8828,18 +9165,18 @@
         <v>46</v>
       </c>
       <c r="J49" s="106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K49" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L49" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="181" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B50" s="104" t="s">
         <v>65</v>
@@ -8877,7 +9214,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B51" s="52" t="s">
         <v>41</v>
@@ -8889,17 +9226,17 @@
         <v>43</v>
       </c>
       <c r="E51" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F51" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
     </row>
     <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B52" s="104" t="s">
         <v>13</v>
@@ -8939,7 +9276,7 @@
         <v>50</v>
       </c>
       <c r="G53" s="127" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -8962,7 +9299,7 @@
         <v>0.5</v>
       </c>
       <c r="G54" s="72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -9059,7 +9396,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="180" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B61" s="182" t="s">
         <v>2</v>
@@ -9083,7 +9420,7 @@
     </row>
     <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="187" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B62" s="155" t="s">
         <v>13</v>
@@ -9107,34 +9444,34 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="173" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63" s="189" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="189" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="189" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="173" t="s">
-        <v>283</v>
-      </c>
-      <c r="C63" s="189" t="s">
+      <c r="F63" s="173" t="s">
+        <v>278</v>
+      </c>
+      <c r="G63" s="173" t="s">
+        <v>279</v>
+      </c>
+      <c r="H63" s="189" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="189" t="s">
+      <c r="I63" s="189" t="s">
         <v>189</v>
       </c>
-      <c r="E63" s="189" t="s">
+      <c r="J63" s="189" t="s">
         <v>190</v>
-      </c>
-      <c r="F63" s="173" t="s">
-        <v>281</v>
-      </c>
-      <c r="G63" s="173" t="s">
-        <v>282</v>
-      </c>
-      <c r="H63" s="189" t="s">
-        <v>191</v>
-      </c>
-      <c r="I63" s="189" t="s">
-        <v>192</v>
-      </c>
-      <c r="J63" s="189" t="s">
-        <v>193</v>
       </c>
       <c r="K63" s="189" t="s">
         <v>55</v>
@@ -9143,33 +9480,33 @@
         <v>56</v>
       </c>
       <c r="M63" s="189" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N63" s="189" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O63" s="189" t="s">
         <v>40</v>
       </c>
       <c r="P63" s="189" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q63" s="189" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R63" s="189" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S63" s="189" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T63" s="111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B64" s="174" t="s">
         <v>13</v>
@@ -9302,7 +9639,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C1" s="85"/>
       <c r="D1" s="86"/>
@@ -9345,16 +9682,16 @@
     </row>
     <row r="4" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="136" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="135" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C4" s="87"/>
     </row>
     <row r="5" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="72" t="s">
         <v>13</v>
@@ -9363,34 +9700,34 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B6" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="87"/>
     </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="136" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B8" s="135" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C8" s="87"/>
     </row>
     <row r="9" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B9" s="104" t="s">
         <v>13</v>
@@ -9420,7 +9757,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>24</v>
@@ -9429,27 +9766,27 @@
         <v>25</v>
       </c>
       <c r="D12" s="175" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="175" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" s="72" t="s">
         <v>28</v>
@@ -9458,13 +9795,13 @@
         <v>28</v>
       </c>
       <c r="D13" s="177" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E13" s="72">
         <v>3</v>
       </c>
       <c r="F13" s="177" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G13" s="72">
         <v>1</v>
@@ -9478,33 +9815,33 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D15" s="72" t="s">
         <v>13</v>
@@ -9553,10 +9890,10 @@
         <v>36</v>
       </c>
       <c r="G18" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H18" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -9587,7 +9924,7 @@
     </row>
     <row r="20" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="180" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>41</v>
@@ -9596,10 +9933,10 @@
         <v>42</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E20" s="175" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>43</v>
@@ -9614,21 +9951,21 @@
         <v>46</v>
       </c>
       <c r="J20" s="173" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K20" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L20" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="181" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B21" s="104" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C21" s="104" t="s">
         <v>13</v>
@@ -9637,16 +9974,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="104" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F21" s="104" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G21" s="104" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H21" s="104" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I21" s="104" t="s">
         <v>13</v>
@@ -9663,7 +10000,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>41</v>
@@ -9675,17 +10012,17 @@
         <v>43</v>
       </c>
       <c r="E22" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F22" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" s="104" t="s">
         <v>13</v>
@@ -9725,7 +10062,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="127" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -9748,7 +10085,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -9845,7 +10182,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="180" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B32" s="182" t="s">
         <v>2</v>
@@ -9869,7 +10206,7 @@
     </row>
     <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="187" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B33" s="155" t="s">
         <v>13</v>
@@ -9893,34 +10230,34 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="173" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" s="189" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="189" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="189" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="173" t="s">
-        <v>283</v>
-      </c>
-      <c r="C34" s="189" t="s">
+      <c r="F34" s="173" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" s="173" t="s">
+        <v>279</v>
+      </c>
+      <c r="H34" s="189" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="189" t="s">
+      <c r="I34" s="189" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="189" t="s">
+      <c r="J34" s="189" t="s">
         <v>190</v>
-      </c>
-      <c r="F34" s="173" t="s">
-        <v>281</v>
-      </c>
-      <c r="G34" s="173" t="s">
-        <v>282</v>
-      </c>
-      <c r="H34" s="189" t="s">
-        <v>191</v>
-      </c>
-      <c r="I34" s="189" t="s">
-        <v>192</v>
-      </c>
-      <c r="J34" s="189" t="s">
-        <v>193</v>
       </c>
       <c r="K34" s="189" t="s">
         <v>55</v>
@@ -9929,33 +10266,33 @@
         <v>56</v>
       </c>
       <c r="M34" s="189" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N34" s="189" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O34" s="189" t="s">
         <v>40</v>
       </c>
       <c r="P34" s="189" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="189" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R34" s="189" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S34" s="189" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T34" s="111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B35" s="174" t="s">
         <v>13</v>
@@ -10099,10 +10436,10 @@
         <v>36</v>
       </c>
       <c r="G42" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H42" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -10133,7 +10470,7 @@
     </row>
     <row r="44" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="180" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>41</v>
@@ -10142,10 +10479,10 @@
         <v>42</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E44" s="175" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F44" s="35" t="s">
         <v>43</v>
@@ -10160,18 +10497,18 @@
         <v>46</v>
       </c>
       <c r="J44" s="173" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K44" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L44" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="181" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B45" s="104" t="s">
         <v>65</v>
@@ -10209,7 +10546,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B46" s="52" t="s">
         <v>41</v>
@@ -10221,17 +10558,17 @@
         <v>43</v>
       </c>
       <c r="E46" s="173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F46" s="173" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B47" s="104" t="s">
         <v>13</v>
@@ -10271,7 +10608,7 @@
         <v>50</v>
       </c>
       <c r="G48" s="127" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -10294,7 +10631,7 @@
         <v>0.5</v>
       </c>
       <c r="G49" s="72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -10391,7 +10728,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="180" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B56" s="182" t="s">
         <v>2</v>
@@ -10415,7 +10752,7 @@
     </row>
     <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="187" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B57" s="155" t="s">
         <v>13</v>
@@ -10439,34 +10776,34 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="173" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" s="189" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="189" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" s="189" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="173" t="s">
-        <v>283</v>
-      </c>
-      <c r="C58" s="189" t="s">
+      <c r="F58" s="173" t="s">
+        <v>278</v>
+      </c>
+      <c r="G58" s="173" t="s">
+        <v>279</v>
+      </c>
+      <c r="H58" s="189" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="189" t="s">
+      <c r="I58" s="189" t="s">
         <v>189</v>
       </c>
-      <c r="E58" s="189" t="s">
+      <c r="J58" s="189" t="s">
         <v>190</v>
-      </c>
-      <c r="F58" s="173" t="s">
-        <v>281</v>
-      </c>
-      <c r="G58" s="173" t="s">
-        <v>282</v>
-      </c>
-      <c r="H58" s="189" t="s">
-        <v>191</v>
-      </c>
-      <c r="I58" s="189" t="s">
-        <v>192</v>
-      </c>
-      <c r="J58" s="189" t="s">
-        <v>193</v>
       </c>
       <c r="K58" s="189" t="s">
         <v>55</v>
@@ -10475,33 +10812,33 @@
         <v>56</v>
       </c>
       <c r="M58" s="189" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N58" s="189" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O58" s="189" t="s">
         <v>40</v>
       </c>
       <c r="P58" s="189" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q58" s="189" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R58" s="189" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S58" s="189" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T58" s="111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B59" s="174" t="s">
         <v>13</v>
